--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,10 +46,13 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -103,7 +106,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -531,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -563,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -618,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -638,25 +668,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -670,22 +700,22 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -693,28 +723,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -728,22 +758,22 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -761,13 +791,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -778,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -792,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -803,13 +833,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>0.375</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -817,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -831,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -845,13 +875,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -862,10 +892,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -873,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.875</v>
+        <v>1.375</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -897,16 +927,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -917,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="D3">
-        <v>-0.125</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -951,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -965,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -982,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>-0.625</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -999,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.375</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>-0.625</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1019,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1036,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1060,34 +1090,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1095,19 +1125,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>84.97</v>
+        <v>61.73999999999999</v>
       </c>
       <c r="C2">
-        <v>14.96</v>
+        <v>33.41</v>
       </c>
       <c r="D2">
-        <v>0.06999999999999999</v>
+        <v>4.51</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1127,22 +1157,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.7</v>
+        <v>33.1</v>
       </c>
       <c r="C3">
-        <v>54.25</v>
+        <v>42.82</v>
       </c>
       <c r="D3">
-        <v>25.92</v>
+        <v>18.89</v>
       </c>
       <c r="E3">
-        <v>5.43</v>
+        <v>4.43</v>
       </c>
       <c r="F3">
-        <v>0.6799999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1159,31 +1189,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1.29</v>
+        <v>4.53</v>
       </c>
       <c r="C4">
-        <v>23.94</v>
+        <v>17.42</v>
       </c>
       <c r="D4">
-        <v>41.57</v>
+        <v>39.7</v>
       </c>
       <c r="E4">
-        <v>24.8</v>
+        <v>24.67</v>
       </c>
       <c r="F4">
-        <v>7.22</v>
+        <v>11.39</v>
       </c>
       <c r="G4">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>99.94999999999999</v>
+        <v>99.71000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1191,31 +1221,31 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="C5">
-        <v>6.140000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="D5">
-        <v>24.19</v>
+        <v>17.69</v>
       </c>
       <c r="E5">
-        <v>37.43</v>
+        <v>29.68</v>
       </c>
       <c r="F5">
-        <v>23.89</v>
+        <v>30.7</v>
       </c>
       <c r="G5">
-        <v>7.24</v>
+        <v>13.37</v>
       </c>
       <c r="H5">
-        <v>1.07</v>
+        <v>4.53</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J5">
-        <v>98.92999999999999</v>
+        <v>95.26000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1223,63 +1253,63 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>0.65</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>7.24</v>
+        <v>17.47</v>
       </c>
       <c r="E6">
-        <v>24.6</v>
+        <v>30.76</v>
       </c>
       <c r="F6">
-        <v>38.01</v>
+        <v>27.89</v>
       </c>
       <c r="G6">
-        <v>23.47</v>
+        <v>14.26</v>
       </c>
       <c r="H6">
-        <v>5.98</v>
+        <v>6.1</v>
       </c>
       <c r="I6">
-        <v>0.05</v>
+        <v>0.42</v>
       </c>
       <c r="J6">
-        <v>93.97</v>
+        <v>93.48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="E7">
-        <v>7.17</v>
+        <v>6.67</v>
       </c>
       <c r="F7">
-        <v>24.57</v>
+        <v>17.03</v>
       </c>
       <c r="G7">
-        <v>42.26</v>
+        <v>33.04000000000001</v>
       </c>
       <c r="H7">
-        <v>23.81</v>
+        <v>33.73</v>
       </c>
       <c r="I7">
-        <v>1.17</v>
+        <v>8.23</v>
       </c>
       <c r="J7">
-        <v>75.02</v>
+        <v>58.04000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1290,33 +1320,33 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E8">
-        <v>0.5700000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="F8">
-        <v>5.63</v>
+        <v>12.02</v>
       </c>
       <c r="G8">
-        <v>25.81</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="H8">
-        <v>54.67999999999999</v>
+        <v>35.98</v>
       </c>
       <c r="I8">
-        <v>13.26</v>
+        <v>13.42</v>
       </c>
       <c r="J8">
-        <v>32.06</v>
+        <v>50.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1331,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G9">
-        <v>0.06999999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H9">
-        <v>14.41</v>
+        <v>19.37</v>
       </c>
       <c r="I9">
-        <v>85.52</v>
+        <v>77.72</v>
       </c>
       <c r="J9">
-        <v>0.06999999999999999</v>
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>
@@ -1361,16 +1391,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1378,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1395,16 +1425,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1412,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1429,16 +1459,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1454,8 +1484,8 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1466,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1483,13 +1513,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1500,13 +1530,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1516,65 +1546,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1629,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1593,10 +1641,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1604,10 +1655,13 @@
         <v>-6</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1669,10 @@
         <v>-9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1633,25 +1690,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="45">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,13 +46,16 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -106,34 +109,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -555,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -607,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,16 +665,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -683,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,28 +694,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -729,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -741,10 +741,10 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,16 +752,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -770,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -791,13 +791,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -808,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -822,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.375</v>
+        <v>1.125</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -833,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -847,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -861,13 +861,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -878,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.25</v>
+        <v>1.625</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -889,13 +889,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.25</v>
+        <v>1.875</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -903,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -927,16 +927,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -944,13 +944,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -961,13 +961,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -978,16 +978,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <v>-0.5</v>
-      </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -998,10 +998,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1032,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="D7">
-        <v>-0.625</v>
+        <v>-0.125</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1049,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>-0.375</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1066,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1090,57 +1090,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>61.73999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="C2">
-        <v>33.41</v>
+        <v>27.19</v>
       </c>
       <c r="D2">
-        <v>4.51</v>
+        <v>7.68</v>
       </c>
       <c r="E2">
-        <v>0.31</v>
+        <v>2.25</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1154,130 +1154,130 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>33.1</v>
+        <v>25.13</v>
       </c>
       <c r="C3">
-        <v>42.82</v>
+        <v>34.27</v>
       </c>
       <c r="D3">
-        <v>18.89</v>
+        <v>23.14</v>
       </c>
       <c r="E3">
-        <v>4.43</v>
+        <v>12.13</v>
       </c>
       <c r="F3">
-        <v>0.73</v>
+        <v>4.27</v>
       </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.53</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="C4">
-        <v>17.42</v>
+        <v>19.12</v>
       </c>
       <c r="D4">
-        <v>39.7</v>
+        <v>27.99</v>
       </c>
       <c r="E4">
-        <v>24.67</v>
+        <v>22.88</v>
       </c>
       <c r="F4">
-        <v>11.39</v>
+        <v>14.26</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="H4">
-        <v>0.29</v>
+        <v>2.27</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="J4">
-        <v>99.71000000000001</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.33</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="C5">
-        <v>3.49</v>
+        <v>14.49</v>
       </c>
       <c r="D5">
-        <v>17.69</v>
+        <v>24.2</v>
       </c>
       <c r="E5">
-        <v>29.68</v>
+        <v>28.35</v>
       </c>
       <c r="F5">
-        <v>30.7</v>
+        <v>16.54</v>
       </c>
       <c r="G5">
-        <v>13.37</v>
+        <v>7.5</v>
       </c>
       <c r="H5">
-        <v>4.53</v>
+        <v>2.9</v>
       </c>
       <c r="I5">
-        <v>0.21</v>
+        <v>0.88</v>
       </c>
       <c r="J5">
-        <v>95.26000000000001</v>
+        <v>96.22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>4.03</v>
       </c>
       <c r="D6">
-        <v>17.47</v>
+        <v>11.37</v>
       </c>
       <c r="E6">
-        <v>30.76</v>
+        <v>18.87</v>
       </c>
       <c r="F6">
-        <v>27.89</v>
+        <v>25.26</v>
       </c>
       <c r="G6">
-        <v>14.26</v>
+        <v>19.17</v>
       </c>
       <c r="H6">
-        <v>6.1</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>0.42</v>
+        <v>7.76</v>
       </c>
       <c r="J6">
-        <v>93.48</v>
+        <v>79.24000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1285,31 +1285,31 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.63</v>
       </c>
       <c r="D7">
-        <v>1.25</v>
+        <v>3.66</v>
       </c>
       <c r="E7">
-        <v>6.67</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="F7">
-        <v>17.03</v>
+        <v>17.45</v>
       </c>
       <c r="G7">
-        <v>33.04000000000001</v>
+        <v>23.23</v>
       </c>
       <c r="H7">
-        <v>33.73</v>
+        <v>24.08</v>
       </c>
       <c r="I7">
-        <v>8.23</v>
+        <v>22.42</v>
       </c>
       <c r="J7">
-        <v>58.04000000000001</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1320,28 +1320,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="D8">
-        <v>0.49</v>
+        <v>1.37</v>
       </c>
       <c r="E8">
-        <v>3.48</v>
+        <v>4.6</v>
       </c>
       <c r="F8">
-        <v>12.02</v>
+        <v>12.95</v>
       </c>
       <c r="G8">
-        <v>34.59999999999999</v>
+        <v>22.38</v>
       </c>
       <c r="H8">
-        <v>35.98</v>
+        <v>26.77</v>
       </c>
       <c r="I8">
-        <v>13.42</v>
+        <v>31.69</v>
       </c>
       <c r="J8">
-        <v>50.59999999999999</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1352,28 +1352,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="F9">
-        <v>0.21</v>
+        <v>9.01</v>
       </c>
       <c r="G9">
-        <v>2.7</v>
+        <v>20.5</v>
       </c>
       <c r="H9">
-        <v>19.37</v>
+        <v>30.81</v>
       </c>
       <c r="I9">
-        <v>77.72</v>
+        <v>36.61</v>
       </c>
       <c r="J9">
-        <v>2.91</v>
+        <v>32.58</v>
       </c>
     </row>
   </sheetData>
@@ -1391,16 +1391,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1425,16 +1425,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1442,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1459,13 +1459,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1476,13 +1476,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1513,13 +1513,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1530,13 +1530,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1546,94 +1546,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1643,11 +1661,14 @@
       <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>-6</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1657,11 +1678,14 @@
       <c r="C8">
         <v>-10</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>-9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1671,8 +1695,11 @@
       <c r="C9">
         <v>-12</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
+      <c r="D9">
+        <v>-10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1682,13 +1709,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,6 +1736,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2">
+        <v>-6</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="49">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,16 +46,19 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -109,24 +112,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -555,16 +567,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -578,25 +590,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -607,28 +619,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,28 +648,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,28 +677,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,28 +706,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,16 +767,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -773,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -791,13 +803,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -808,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -819,13 +831,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -833,13 +845,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -847,13 +859,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -861,13 +873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.125</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -875,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1.625</v>
+        <v>2.25</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -892,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.875</v>
+        <v>2.375</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -906,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -927,16 +939,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -947,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -961,13 +973,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <v>2.375</v>
-      </c>
-      <c r="D3">
-        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -978,16 +990,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -998,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-0.875</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1012,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1029,16 +1041,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
       <c r="D7">
-        <v>-0.125</v>
+        <v>1.25</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1049,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1063,16 +1075,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1090,34 +1102,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1125,255 +1137,255 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62.6</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>27.19</v>
+        <v>27.3</v>
       </c>
       <c r="D2">
-        <v>7.68</v>
+        <v>13.18</v>
       </c>
       <c r="E2">
-        <v>2.25</v>
+        <v>5.52</v>
       </c>
       <c r="F2">
-        <v>0.26</v>
+        <v>2.05</v>
       </c>
       <c r="G2">
+        <v>0.63</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
         <v>0.02</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>100</v>
+        <v>99.67999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>25.13</v>
+        <v>20.3</v>
       </c>
       <c r="C3">
-        <v>34.27</v>
+        <v>23.72</v>
       </c>
       <c r="D3">
-        <v>23.14</v>
+        <v>22.62</v>
       </c>
       <c r="E3">
-        <v>12.13</v>
+        <v>15.73</v>
       </c>
       <c r="F3">
-        <v>4.27</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
-        <v>0.8699999999999999</v>
+        <v>4.89</v>
       </c>
       <c r="H3">
-        <v>0.17</v>
+        <v>2.33</v>
       </c>
       <c r="I3">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
       <c r="J3">
-        <v>99.81</v>
+        <v>96.76000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>6.529999999999999</v>
+        <v>18.47</v>
       </c>
       <c r="C4">
-        <v>19.12</v>
+        <v>23.08</v>
       </c>
       <c r="D4">
-        <v>27.99</v>
+        <v>20.86</v>
       </c>
       <c r="E4">
-        <v>22.88</v>
+        <v>15.98</v>
       </c>
       <c r="F4">
-        <v>14.26</v>
+        <v>10.57</v>
       </c>
       <c r="G4">
-        <v>6.329999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="H4">
-        <v>2.27</v>
+        <v>3.14</v>
       </c>
       <c r="I4">
-        <v>0.62</v>
+        <v>1.46</v>
       </c>
       <c r="J4">
-        <v>97.11</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>5.140000000000001</v>
+        <v>6.54</v>
       </c>
       <c r="C5">
-        <v>14.49</v>
+        <v>12.94</v>
       </c>
       <c r="D5">
-        <v>24.2</v>
+        <v>16.74</v>
       </c>
       <c r="E5">
-        <v>28.35</v>
+        <v>18.11</v>
       </c>
       <c r="F5">
-        <v>16.54</v>
+        <v>16.46</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>13.74</v>
       </c>
       <c r="H5">
-        <v>2.9</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="I5">
-        <v>0.88</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="J5">
-        <v>96.22</v>
+        <v>84.52999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.54</v>
+        <v>1.86</v>
       </c>
       <c r="C6">
-        <v>4.03</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="D6">
-        <v>11.37</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E6">
-        <v>18.87</v>
+        <v>14.17</v>
       </c>
       <c r="F6">
-        <v>25.26</v>
+        <v>16.44</v>
       </c>
       <c r="G6">
-        <v>19.17</v>
+        <v>18.32</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>18.41</v>
       </c>
       <c r="I6">
-        <v>7.76</v>
+        <v>16.01</v>
       </c>
       <c r="J6">
-        <v>79.24000000000001</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06</v>
+        <v>1.13</v>
       </c>
       <c r="C7">
-        <v>0.63</v>
+        <v>4.53</v>
       </c>
       <c r="D7">
-        <v>3.66</v>
+        <v>8.76</v>
       </c>
       <c r="E7">
-        <v>8.469999999999999</v>
+        <v>13.37</v>
       </c>
       <c r="F7">
-        <v>17.45</v>
+        <v>17.01</v>
       </c>
       <c r="G7">
-        <v>23.23</v>
+        <v>18.79</v>
       </c>
       <c r="H7">
-        <v>24.08</v>
+        <v>18.29</v>
       </c>
       <c r="I7">
-        <v>22.42</v>
+        <v>18.12</v>
       </c>
       <c r="J7">
-        <v>53.5</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>2.31</v>
       </c>
       <c r="D8">
-        <v>1.37</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E8">
-        <v>4.6</v>
+        <v>11.05</v>
       </c>
       <c r="F8">
-        <v>12.95</v>
+        <v>16.48</v>
       </c>
       <c r="G8">
-        <v>22.38</v>
+        <v>19.49</v>
       </c>
       <c r="H8">
-        <v>26.77</v>
+        <v>21.91</v>
       </c>
       <c r="I8">
-        <v>31.69</v>
+        <v>22.29</v>
       </c>
       <c r="J8">
-        <v>41.54</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.59</v>
+        <v>2.47</v>
       </c>
       <c r="E9">
-        <v>2.45</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="F9">
-        <v>9.01</v>
+        <v>11.49</v>
       </c>
       <c r="G9">
-        <v>20.5</v>
+        <v>17.7</v>
       </c>
       <c r="H9">
-        <v>30.81</v>
+        <v>26.1</v>
       </c>
       <c r="I9">
-        <v>36.61</v>
+        <v>35.24</v>
       </c>
       <c r="J9">
-        <v>32.58</v>
+        <v>38.66</v>
       </c>
     </row>
   </sheetData>
@@ -1391,16 +1403,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1408,16 +1420,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1425,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1434,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1445,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1462,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1476,16 +1488,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1493,16 +1505,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1510,16 +1522,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1527,16 +1539,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1546,61 +1558,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,11 +1634,14 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1630,76 +1654,91 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-10</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-9</v>
+      </c>
+      <c r="C8">
+        <v>-12</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
+      <c r="E9">
         <v>-10</v>
       </c>
-      <c r="D8">
-        <v>-9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-9</v>
-      </c>
-      <c r="C9">
-        <v>-12</v>
-      </c>
-      <c r="D9">
-        <v>-10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
+      <c r="F9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1717,25 +1756,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="50">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,19 +46,22 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -112,25 +115,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓8</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -570,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -619,19 +622,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -648,22 +651,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -677,28 +680,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -706,28 +709,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -735,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -770,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -803,13 +806,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -820,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -834,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.625</v>
+        <v>1.875</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -845,13 +848,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1.625</v>
+        <v>2.375</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -859,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.875</v>
+        <v>2.375</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -873,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.125</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -887,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -901,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -918,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -939,16 +942,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -959,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.375</v>
+        <v>4.375</v>
       </c>
       <c r="D2">
         <v>-0.625</v>
@@ -976,13 +979,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -993,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3.375</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-0.625</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1010,13 +1013,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.125</v>
+        <v>2.375</v>
       </c>
       <c r="D5">
-        <v>-0.875</v>
+        <v>-0.625</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1027,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1044,10 +1047,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1061,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1084,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1102,34 +1105,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1137,159 +1140,159 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48.1</v>
       </c>
       <c r="C2">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D2">
-        <v>13.18</v>
+        <v>14.82</v>
       </c>
       <c r="E2">
-        <v>5.52</v>
+        <v>6.59</v>
       </c>
       <c r="F2">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="G2">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J2">
-        <v>99.67999999999998</v>
+        <v>99.87000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>20.3</v>
+        <v>23.47</v>
       </c>
       <c r="C3">
-        <v>23.72</v>
+        <v>24.88</v>
       </c>
       <c r="D3">
-        <v>22.62</v>
+        <v>20.95</v>
       </c>
       <c r="E3">
-        <v>15.73</v>
+        <v>14.27</v>
       </c>
       <c r="F3">
-        <v>9.5</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="G3">
-        <v>4.89</v>
+        <v>5.21</v>
       </c>
       <c r="H3">
-        <v>2.33</v>
+        <v>1.65</v>
       </c>
       <c r="I3">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
       <c r="J3">
-        <v>96.76000000000001</v>
+        <v>97.91999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>18.47</v>
+        <v>17.12</v>
       </c>
       <c r="C4">
-        <v>23.08</v>
+        <v>21.31</v>
       </c>
       <c r="D4">
-        <v>20.86</v>
+        <v>22.84</v>
       </c>
       <c r="E4">
-        <v>15.98</v>
+        <v>18.35</v>
       </c>
       <c r="F4">
-        <v>10.57</v>
+        <v>11.65</v>
       </c>
       <c r="G4">
-        <v>6.44</v>
+        <v>5.91</v>
       </c>
       <c r="H4">
-        <v>3.14</v>
+        <v>2.14</v>
       </c>
       <c r="I4">
-        <v>1.46</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="J4">
-        <v>95.40000000000001</v>
+        <v>97.18000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>6.54</v>
+        <v>6.39</v>
       </c>
       <c r="C5">
-        <v>12.94</v>
+        <v>11.81</v>
       </c>
       <c r="D5">
-        <v>16.74</v>
+        <v>15.48</v>
       </c>
       <c r="E5">
-        <v>18.11</v>
+        <v>18.8</v>
       </c>
       <c r="F5">
-        <v>16.46</v>
+        <v>18.73</v>
       </c>
       <c r="G5">
-        <v>13.74</v>
+        <v>14.82</v>
       </c>
       <c r="H5">
-        <v>9.520000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="I5">
-        <v>5.949999999999999</v>
+        <v>4.55</v>
       </c>
       <c r="J5">
-        <v>84.52999999999999</v>
+        <v>86.03</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="C6">
-        <v>5.319999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="D6">
-        <v>9.470000000000001</v>
+        <v>11.76</v>
       </c>
       <c r="E6">
-        <v>14.17</v>
+        <v>15.96</v>
       </c>
       <c r="F6">
-        <v>16.44</v>
+        <v>19.01</v>
       </c>
       <c r="G6">
-        <v>18.32</v>
+        <v>20.29</v>
       </c>
       <c r="H6">
-        <v>18.41</v>
+        <v>15.05</v>
       </c>
       <c r="I6">
-        <v>16.01</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="J6">
-        <v>65.58</v>
+        <v>76.06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1297,31 +1300,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.13</v>
+        <v>2.18</v>
       </c>
       <c r="C7">
-        <v>4.53</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="D7">
-        <v>8.76</v>
+        <v>11.37</v>
       </c>
       <c r="E7">
-        <v>13.37</v>
+        <v>17.6</v>
       </c>
       <c r="F7">
-        <v>17.01</v>
+        <v>20.74</v>
       </c>
       <c r="G7">
-        <v>18.79</v>
+        <v>18.31</v>
       </c>
       <c r="H7">
-        <v>18.29</v>
+        <v>13.32</v>
       </c>
       <c r="I7">
-        <v>18.12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J7">
-        <v>63.59</v>
+        <v>77.38</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1329,31 +1332,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.5700000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C8">
-        <v>2.31</v>
+        <v>0.36</v>
       </c>
       <c r="D8">
-        <v>5.899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="E8">
-        <v>11.05</v>
+        <v>4.2</v>
       </c>
       <c r="F8">
-        <v>16.48</v>
+        <v>9.83</v>
       </c>
       <c r="G8">
-        <v>19.49</v>
+        <v>18.87</v>
       </c>
       <c r="H8">
-        <v>21.91</v>
+        <v>33.79</v>
       </c>
       <c r="I8">
-        <v>22.29</v>
+        <v>31.51</v>
       </c>
       <c r="J8">
-        <v>55.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1361,31 +1364,31 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="D9">
-        <v>2.47</v>
+        <v>1.43</v>
       </c>
       <c r="E9">
-        <v>6.069999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="F9">
-        <v>11.49</v>
+        <v>8.76</v>
       </c>
       <c r="G9">
-        <v>17.7</v>
+        <v>15.97</v>
       </c>
       <c r="H9">
-        <v>26.1</v>
+        <v>24.51</v>
       </c>
       <c r="I9">
-        <v>35.24</v>
+        <v>44.63</v>
       </c>
       <c r="J9">
-        <v>38.66</v>
+        <v>30.86</v>
       </c>
     </row>
   </sheetData>
@@ -1403,16 +1406,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1423,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1440,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1474,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1488,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>-4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -1505,13 +1508,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -1522,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1542,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1558,13 +1561,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1578,10 +1581,13 @@
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1597,11 +1603,14 @@
       <c r="E2">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1617,11 +1626,14 @@
       <c r="E3">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,11 +1649,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1657,71 +1672,83 @@
       <c r="E5">
         <v>-2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D6">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>-4</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
         <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>-10</v>
-      </c>
-      <c r="D7">
-        <v>-9</v>
       </c>
       <c r="E7">
         <v>-4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>-10</v>
+      </c>
+      <c r="D8">
         <v>-9</v>
-      </c>
-      <c r="C8">
-        <v>-12</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
       </c>
       <c r="E8">
         <v>-4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>-9</v>
+      </c>
+      <c r="G8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1764,10 @@
       <c r="E9">
         <v>-10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>-18</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1748,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1756,25 +1786,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1782,24 +1812,50 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-6</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="52">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,22 +46,25 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -118,24 +121,24 @@
     <t>↑4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -596,22 +602,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -634,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -654,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -683,25 +689,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -721,16 +727,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -750,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -770,22 +776,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -806,13 +812,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -823,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -837,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.875</v>
+        <v>2.375</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -851,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -865,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.375</v>
+        <v>3.125</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -879,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -890,13 +896,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -904,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.625</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -921,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.375</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -942,16 +948,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -962,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.375</v>
+        <v>4.875</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>-0.125</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -976,16 +982,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.375</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -993,16 +999,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.375</v>
+        <v>4.375</v>
       </c>
       <c r="D4">
-        <v>-0.625</v>
+        <v>0.375</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1010,13 +1016,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2.375</v>
-      </c>
       <c r="D5">
-        <v>-0.625</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1027,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1047,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1061,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.125</v>
+        <v>1.375</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1078,16 +1084,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1105,34 +1111,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1140,31 +1146,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48.1</v>
+        <v>39.09</v>
       </c>
       <c r="C2">
-        <v>27.6</v>
+        <v>28.49</v>
       </c>
       <c r="D2">
-        <v>14.82</v>
+        <v>17.83</v>
       </c>
       <c r="E2">
-        <v>6.59</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="F2">
-        <v>2.14</v>
+        <v>4.19</v>
       </c>
       <c r="G2">
-        <v>0.62</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>99.87000000000002</v>
+        <v>99.75999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1172,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.47</v>
+        <v>29.91</v>
       </c>
       <c r="C3">
-        <v>24.88</v>
+        <v>24.23</v>
       </c>
       <c r="D3">
-        <v>20.95</v>
+        <v>18.99</v>
       </c>
       <c r="E3">
-        <v>14.27</v>
+        <v>12.56</v>
       </c>
       <c r="F3">
-        <v>9.139999999999999</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="G3">
-        <v>5.21</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="H3">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="I3">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="J3">
-        <v>97.91999999999999</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1204,31 +1210,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.12</v>
+        <v>18.28</v>
       </c>
       <c r="C4">
-        <v>21.31</v>
+        <v>21.66</v>
       </c>
       <c r="D4">
-        <v>22.84</v>
+        <v>21.78</v>
       </c>
       <c r="E4">
-        <v>18.35</v>
+        <v>17.59</v>
       </c>
       <c r="F4">
-        <v>11.65</v>
+        <v>11.31</v>
       </c>
       <c r="G4">
-        <v>5.91</v>
+        <v>6.09</v>
       </c>
       <c r="H4">
-        <v>2.14</v>
+        <v>2.61</v>
       </c>
       <c r="I4">
         <v>0.6799999999999999</v>
       </c>
       <c r="J4">
-        <v>97.18000000000001</v>
+        <v>96.71000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1236,95 +1242,95 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.39</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="C5">
-        <v>11.81</v>
+        <v>8.51</v>
       </c>
       <c r="D5">
-        <v>15.48</v>
+        <v>13.21</v>
       </c>
       <c r="E5">
-        <v>18.8</v>
+        <v>16.57</v>
       </c>
       <c r="F5">
-        <v>18.73</v>
+        <v>19.27</v>
       </c>
       <c r="G5">
-        <v>14.82</v>
+        <v>19.38</v>
       </c>
       <c r="H5">
-        <v>9.42</v>
+        <v>12.59</v>
       </c>
       <c r="I5">
-        <v>4.55</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="J5">
-        <v>86.03</v>
+        <v>82.08999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2.6</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="C6">
-        <v>6.44</v>
+        <v>8.19</v>
       </c>
       <c r="D6">
-        <v>11.76</v>
+        <v>11.92</v>
       </c>
       <c r="E6">
-        <v>15.96</v>
+        <v>17.9</v>
       </c>
       <c r="F6">
-        <v>19.01</v>
+        <v>19.4</v>
       </c>
       <c r="G6">
-        <v>20.29</v>
+        <v>19.04</v>
       </c>
       <c r="H6">
-        <v>15.05</v>
+        <v>12.3</v>
       </c>
       <c r="I6">
-        <v>8.890000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="J6">
-        <v>76.06</v>
+        <v>80.58000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="C7">
-        <v>7.180000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="D7">
-        <v>11.37</v>
+        <v>12.76</v>
       </c>
       <c r="E7">
-        <v>17.6</v>
+        <v>18.8</v>
       </c>
       <c r="F7">
-        <v>20.74</v>
+        <v>19.69</v>
       </c>
       <c r="G7">
-        <v>18.31</v>
+        <v>17.5</v>
       </c>
       <c r="H7">
-        <v>13.32</v>
+        <v>12.43</v>
       </c>
       <c r="I7">
-        <v>9.300000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="J7">
-        <v>77.38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1332,31 +1338,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="D8">
-        <v>1.35</v>
+        <v>2.81</v>
       </c>
       <c r="E8">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>9.83</v>
+        <v>13.25</v>
       </c>
       <c r="G8">
-        <v>18.87</v>
+        <v>22.05</v>
       </c>
       <c r="H8">
-        <v>33.79</v>
+        <v>36.35</v>
       </c>
       <c r="I8">
-        <v>31.51</v>
+        <v>18.56</v>
       </c>
       <c r="J8">
-        <v>34.7</v>
+        <v>45.09</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1364,31 +1370,31 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C9">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="D9">
-        <v>1.43</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E9">
-        <v>4.23</v>
+        <v>1.62</v>
       </c>
       <c r="F9">
-        <v>8.76</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="G9">
-        <v>15.97</v>
+        <v>10.46</v>
       </c>
       <c r="H9">
-        <v>24.51</v>
+        <v>21.94</v>
       </c>
       <c r="I9">
-        <v>44.63</v>
+        <v>60.39</v>
       </c>
       <c r="J9">
-        <v>30.86</v>
+        <v>17.67</v>
       </c>
     </row>
   </sheetData>
@@ -1406,16 +1412,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1426,13 +1432,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1443,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1460,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1477,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1491,16 +1497,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>-4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1511,13 +1517,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1525,16 +1531,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1545,13 +1551,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1561,33 +1567,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1606,11 +1615,14 @@
       <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1629,11 +1641,14 @@
       <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1652,11 +1667,14 @@
       <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1675,34 +1693,40 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-10</v>
+      </c>
+      <c r="D6">
         <v>-9</v>
-      </c>
-      <c r="C6">
-        <v>-12</v>
-      </c>
-      <c r="D6">
-        <v>-10</v>
       </c>
       <c r="E6">
         <v>-4</v>
       </c>
       <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
         <v>-4</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1721,34 +1745,40 @@
       <c r="F7">
         <v>-8</v>
       </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="C8">
+        <v>-12</v>
+      </c>
+      <c r="D8">
         <v>-10</v>
-      </c>
-      <c r="D8">
-        <v>-9</v>
       </c>
       <c r="E8">
         <v>-4</v>
       </c>
       <c r="F8">
-        <v>-9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1767,8 +1797,11 @@
       <c r="F9">
         <v>-18</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
+      <c r="G9">
+        <v>-22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1786,25 +1819,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1812,25 +1845,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1838,24 +1871,76 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>-12</v>
+      </c>
+      <c r="F4">
+        <v>-22</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>-2</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>-6</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,25 +46,25 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -118,27 +118,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -576,16 +582,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -599,28 +605,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,22 +634,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -657,28 +663,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -686,28 +692,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -715,28 +721,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -765,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -773,28 +779,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +835,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -840,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -854,13 +860,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -868,13 +874,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.125</v>
+        <v>3.375</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -882,13 +888,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -896,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.375</v>
+        <v>3.875</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.625</v>
+        <v>4.25</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -927,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.375</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -965,13 +971,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D2">
-        <v>-0.125</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -982,16 +988,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.375</v>
+        <v>5.125</v>
       </c>
       <c r="D3">
-        <v>-0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -999,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.375</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1016,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.625</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-0.375</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1033,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>2.75</v>
-      </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1053,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2.125</v>
+        <v>2.625</v>
       </c>
       <c r="D7">
-        <v>1.125</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1067,16 +1073,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.375</v>
+        <v>1.625</v>
       </c>
       <c r="D8">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1084,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1146,95 +1152,95 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>39.09</v>
+        <v>31.21</v>
       </c>
       <c r="C2">
-        <v>28.49</v>
+        <v>25.56</v>
       </c>
       <c r="D2">
-        <v>17.83</v>
+        <v>18.96</v>
       </c>
       <c r="E2">
-        <v>8.959999999999999</v>
+        <v>12.14</v>
       </c>
       <c r="F2">
-        <v>4.19</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
+        <v>3.29</v>
       </c>
       <c r="H2">
-        <v>0.19</v>
+        <v>1.04</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
-        <v>99.75999999999999</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>29.91</v>
+        <v>29.15</v>
       </c>
       <c r="C3">
-        <v>24.23</v>
+        <v>21.81</v>
       </c>
       <c r="D3">
-        <v>18.99</v>
+        <v>16.57</v>
       </c>
       <c r="E3">
-        <v>12.56</v>
+        <v>14.55</v>
       </c>
       <c r="F3">
-        <v>8.129999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="G3">
-        <v>4.279999999999999</v>
+        <v>5.31</v>
       </c>
       <c r="H3">
-        <v>1.59</v>
+        <v>2.39</v>
       </c>
       <c r="I3">
-        <v>0.31</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="J3">
-        <v>98.09999999999999</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>18.28</v>
+        <v>22.97</v>
       </c>
       <c r="C4">
-        <v>21.66</v>
+        <v>26.84</v>
       </c>
       <c r="D4">
-        <v>21.78</v>
+        <v>23.32</v>
       </c>
       <c r="E4">
-        <v>17.59</v>
+        <v>14.16</v>
       </c>
       <c r="F4">
-        <v>11.31</v>
+        <v>7.79</v>
       </c>
       <c r="G4">
-        <v>6.09</v>
+        <v>3.42</v>
       </c>
       <c r="H4">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="I4">
-        <v>0.6799999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="J4">
-        <v>96.71000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1242,95 +1248,95 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.149999999999999</v>
+        <v>7.33</v>
       </c>
       <c r="C5">
-        <v>8.51</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="D5">
-        <v>13.21</v>
+        <v>14.9</v>
       </c>
       <c r="E5">
-        <v>16.57</v>
+        <v>17.01</v>
       </c>
       <c r="F5">
-        <v>19.27</v>
+        <v>17.48</v>
       </c>
       <c r="G5">
-        <v>19.38</v>
+        <v>14.14</v>
       </c>
       <c r="H5">
-        <v>12.59</v>
+        <v>11.16</v>
       </c>
       <c r="I5">
-        <v>5.319999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="J5">
-        <v>82.08999999999999</v>
+        <v>80.82000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4.130000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="C6">
-        <v>8.19</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="D6">
-        <v>11.92</v>
+        <v>12.69</v>
       </c>
       <c r="E6">
-        <v>17.9</v>
+        <v>16.56</v>
       </c>
       <c r="F6">
-        <v>19.4</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>19.04</v>
+        <v>16.62</v>
       </c>
       <c r="H6">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="I6">
-        <v>7.12</v>
+        <v>7.79</v>
       </c>
       <c r="J6">
-        <v>80.58000000000001</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="C7">
-        <v>7.95</v>
+        <v>3.86</v>
       </c>
       <c r="D7">
-        <v>12.76</v>
+        <v>8.19</v>
       </c>
       <c r="E7">
-        <v>18.8</v>
+        <v>12.8</v>
       </c>
       <c r="F7">
-        <v>19.69</v>
+        <v>16.7</v>
       </c>
       <c r="G7">
-        <v>17.5</v>
+        <v>17.82</v>
       </c>
       <c r="H7">
-        <v>12.43</v>
+        <v>18.88</v>
       </c>
       <c r="I7">
-        <v>7.57</v>
+        <v>20.11</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1338,31 +1344,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="C8">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="D8">
-        <v>2.81</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="F8">
-        <v>13.25</v>
+        <v>14.64</v>
       </c>
       <c r="G8">
-        <v>22.05</v>
+        <v>22.95</v>
       </c>
       <c r="H8">
-        <v>36.35</v>
+        <v>27.91</v>
       </c>
       <c r="I8">
-        <v>18.56</v>
+        <v>21.95</v>
       </c>
       <c r="J8">
-        <v>45.09</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1370,31 +1376,31 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="C9">
-        <v>0.11</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D9">
-        <v>0.7000000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="E9">
-        <v>1.62</v>
+        <v>5.31</v>
       </c>
       <c r="F9">
-        <v>4.760000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G9">
-        <v>10.46</v>
+        <v>16.45</v>
       </c>
       <c r="H9">
-        <v>21.94</v>
+        <v>25.1</v>
       </c>
       <c r="I9">
-        <v>60.39</v>
+        <v>40.68</v>
       </c>
       <c r="J9">
-        <v>17.67</v>
+        <v>34.22</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1446,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -1463,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -1483,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1497,16 +1503,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1514,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>-9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1534,13 +1540,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1551,13 +1557,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1573,278 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <v>-9</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>-10</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-9</v>
+      </c>
+      <c r="C8">
+        <v>-12</v>
+      </c>
+      <c r="D8">
+        <v>-10</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>-15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-18</v>
+      </c>
+      <c r="G9">
+        <v>-22</v>
+      </c>
+      <c r="H9">
+        <v>-21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1575,269 +1852,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>-10</v>
-      </c>
-      <c r="D6">
-        <v>-9</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-9</v>
-      </c>
-      <c r="G6">
-        <v>-4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>-8</v>
-      </c>
-      <c r="G7">
-        <v>-9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-9</v>
-      </c>
-      <c r="C8">
-        <v>-12</v>
-      </c>
-      <c r="D8">
-        <v>-10</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8">
-        <v>-12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>-18</v>
-      </c>
-      <c r="G9">
-        <v>-22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1845,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1871,25 +1904,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1897,25 +1930,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1923,24 +1956,50 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>-12</v>
+      </c>
+      <c r="F5">
+        <v>-22</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-6</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,25 +46,28 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -118,28 +121,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -582,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -591,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -605,25 +608,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -646,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -666,19 +669,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -695,13 +698,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -721,28 +724,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -750,19 +753,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -771,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -788,13 +791,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -818,13 +821,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -835,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.125</v>
+        <v>2.25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -846,13 +849,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.375</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -860,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -877,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3.375</v>
+        <v>4.125</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -891,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.125</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -902,13 +905,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.875</v>
+        <v>4.75</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -916,13 +919,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -933,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.375</v>
+        <v>5.125</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -954,16 +957,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.375</v>
+        <v>6.125</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -988,16 +991,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.125</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1008,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.125</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1025,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.625</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1039,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.375</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1056,16 +1059,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.625</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1076,10 +1079,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1.625</v>
+        <v>2.375</v>
       </c>
       <c r="D8">
-        <v>0.625</v>
+        <v>1.375</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1093,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1117,130 +1120,130 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>31.21</v>
+        <v>34.38</v>
       </c>
       <c r="C2">
-        <v>25.56</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>18.96</v>
+        <v>18.21</v>
       </c>
       <c r="E2">
-        <v>12.14</v>
+        <v>10.89</v>
       </c>
       <c r="F2">
-        <v>7.449999999999999</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="G2">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="I2">
-        <v>0.35</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="J2">
-        <v>98.61</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>29.15</v>
+        <v>25.89</v>
       </c>
       <c r="C3">
-        <v>21.81</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>16.57</v>
+        <v>18.51</v>
       </c>
       <c r="E3">
-        <v>14.55</v>
+        <v>12.29</v>
       </c>
       <c r="F3">
-        <v>9.41</v>
+        <v>11.9</v>
       </c>
       <c r="G3">
-        <v>5.31</v>
+        <v>6.58</v>
       </c>
       <c r="H3">
-        <v>2.39</v>
+        <v>3.94</v>
       </c>
       <c r="I3">
-        <v>0.8099999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="J3">
-        <v>96.8</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>22.97</v>
+        <v>19.2</v>
       </c>
       <c r="C4">
-        <v>26.84</v>
+        <v>25.55</v>
       </c>
       <c r="D4">
-        <v>23.32</v>
+        <v>22.03</v>
       </c>
       <c r="E4">
-        <v>14.16</v>
+        <v>15.73</v>
       </c>
       <c r="F4">
-        <v>7.79</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="G4">
-        <v>3.42</v>
+        <v>4.7</v>
       </c>
       <c r="H4">
-        <v>1.21</v>
+        <v>2.23</v>
       </c>
       <c r="I4">
-        <v>0.29</v>
+        <v>0.86</v>
       </c>
       <c r="J4">
-        <v>98.5</v>
+        <v>96.91000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1248,31 +1251,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7.33</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="C5">
-        <v>9.959999999999999</v>
+        <v>12.37</v>
       </c>
       <c r="D5">
-        <v>14.9</v>
+        <v>13.17</v>
       </c>
       <c r="E5">
-        <v>17.01</v>
+        <v>15.03</v>
       </c>
       <c r="F5">
-        <v>17.48</v>
+        <v>16.72</v>
       </c>
       <c r="G5">
-        <v>14.14</v>
+        <v>12.23</v>
       </c>
       <c r="H5">
-        <v>11.16</v>
+        <v>11.75</v>
       </c>
       <c r="I5">
-        <v>8.02</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="J5">
-        <v>80.82000000000001</v>
+        <v>79.04000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1280,31 +1283,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.24</v>
+        <v>8.24</v>
       </c>
       <c r="C6">
-        <v>9.790000000000001</v>
+        <v>11.64</v>
       </c>
       <c r="D6">
-        <v>12.69</v>
+        <v>12.53</v>
       </c>
       <c r="E6">
-        <v>16.56</v>
+        <v>17.15</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>14.45</v>
       </c>
       <c r="G6">
-        <v>16.62</v>
+        <v>14.08</v>
       </c>
       <c r="H6">
-        <v>12.31</v>
+        <v>12.14</v>
       </c>
       <c r="I6">
-        <v>7.79</v>
+        <v>9.77</v>
       </c>
       <c r="J6">
-        <v>79.90000000000001</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1312,95 +1315,95 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="C7">
-        <v>3.86</v>
+        <v>2.64</v>
       </c>
       <c r="D7">
-        <v>8.19</v>
+        <v>5.41</v>
       </c>
       <c r="E7">
-        <v>12.8</v>
+        <v>10.11</v>
       </c>
       <c r="F7">
-        <v>16.7</v>
+        <v>11.79</v>
       </c>
       <c r="G7">
-        <v>17.82</v>
+        <v>17.5</v>
       </c>
       <c r="H7">
-        <v>18.88</v>
+        <v>20.89</v>
       </c>
       <c r="I7">
-        <v>20.11</v>
+        <v>30.44</v>
       </c>
       <c r="J7">
-        <v>61.01</v>
+        <v>48.67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>1.06</v>
       </c>
       <c r="C8">
-        <v>1.36</v>
+        <v>3.04</v>
       </c>
       <c r="D8">
-        <v>3.4</v>
+        <v>5.66</v>
       </c>
       <c r="E8">
-        <v>7.470000000000001</v>
+        <v>10.55</v>
       </c>
       <c r="F8">
-        <v>14.64</v>
+        <v>13.78</v>
       </c>
       <c r="G8">
-        <v>22.95</v>
+        <v>19.96</v>
       </c>
       <c r="H8">
-        <v>27.91</v>
+        <v>22.37</v>
       </c>
       <c r="I8">
-        <v>21.95</v>
+        <v>23.58</v>
       </c>
       <c r="J8">
-        <v>50.14</v>
+        <v>54.05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.14</v>
+        <v>0.49</v>
       </c>
       <c r="C9">
-        <v>0.8200000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="D9">
-        <v>1.97</v>
+        <v>4.48</v>
       </c>
       <c r="E9">
-        <v>5.31</v>
+        <v>8.25</v>
       </c>
       <c r="F9">
-        <v>9.529999999999999</v>
+        <v>14.55</v>
       </c>
       <c r="G9">
-        <v>16.45</v>
+        <v>21.54</v>
       </c>
       <c r="H9">
-        <v>25.1</v>
+        <v>25.33</v>
       </c>
       <c r="I9">
-        <v>40.68</v>
+        <v>23.7</v>
       </c>
       <c r="J9">
-        <v>34.22</v>
+        <v>50.97</v>
       </c>
     </row>
   </sheetData>
@@ -1418,16 +1421,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1438,13 +1441,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1455,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1469,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1486,16 +1489,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1503,16 +1506,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1523,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1540,13 +1543,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1557,13 +1560,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1573,13 +1576,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1602,10 +1605,13 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,11 +1636,14 @@
       <c r="H2">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,98 +1668,110 @@
       <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-6</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <v>-9</v>
-      </c>
-      <c r="H6">
-        <v>-6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1775,11 +1796,14 @@
       <c r="H7">
         <v>-9</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1804,11 +1828,14 @@
       <c r="H8">
         <v>-15</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1833,8 +1860,11 @@
       <c r="H9">
         <v>-21</v>
       </c>
-      <c r="I9" t="s">
-        <v>39</v>
+      <c r="I9">
+        <v>-26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1852,25 +1882,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1878,25 +1908,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1904,25 +1934,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1930,25 +1960,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1956,25 +1986,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1982,25 +2012,77 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>-12</v>
+      </c>
+      <c r="F6">
+        <v>-22</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-14</v>
+      </c>
+      <c r="F8">
+        <v>-16</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,28 +46,31 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -121,25 +124,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>0</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -582,25 +591,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -611,25 +620,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -637,28 +646,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -669,16 +678,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -701,13 +710,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -716,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -727,22 +736,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -753,28 +762,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -785,16 +794,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -803,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -821,13 +830,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -838,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -852,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.375</v>
+        <v>4.125</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -866,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.125</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -880,10 +889,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -894,10 +903,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4.125</v>
+        <v>4.375</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -908,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -922,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.75</v>
+        <v>5.375</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -936,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5.125</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +966,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -977,13 +986,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.125</v>
+        <v>7.125</v>
       </c>
       <c r="D2">
         <v>0.125</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -994,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.625</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-0.375</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1011,13 +1020,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.125</v>
+        <v>5.75</v>
       </c>
       <c r="D4">
-        <v>0.125</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1028,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1042,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.375</v>
+        <v>3.875</v>
       </c>
       <c r="D6">
-        <v>0.375</v>
+        <v>-1.125</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1059,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.875</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-0.125</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1085,7 +1094,7 @@
         <v>1.375</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1096,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1120,34 +1129,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1155,31 +1164,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.38</v>
+        <v>30.89</v>
       </c>
       <c r="C2">
-        <v>24.1</v>
+        <v>26.74</v>
       </c>
       <c r="D2">
-        <v>18.21</v>
+        <v>15.47</v>
       </c>
       <c r="E2">
-        <v>10.89</v>
+        <v>13.76</v>
       </c>
       <c r="F2">
         <v>7.109999999999999</v>
       </c>
       <c r="G2">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="I2">
-        <v>0.5499999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="J2">
-        <v>98.09999999999999</v>
+        <v>97.57000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1187,31 +1196,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.89</v>
+        <v>27.04</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>19.41</v>
       </c>
       <c r="D3">
-        <v>18.51</v>
+        <v>14.19</v>
       </c>
       <c r="E3">
-        <v>12.29</v>
+        <v>17.65</v>
       </c>
       <c r="F3">
-        <v>11.9</v>
+        <v>7.85</v>
       </c>
       <c r="G3">
-        <v>6.58</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="H3">
-        <v>3.94</v>
+        <v>4.15</v>
       </c>
       <c r="I3">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="J3">
-        <v>94.17</v>
+        <v>94.00999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1219,31 +1228,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.2</v>
+        <v>18.62</v>
       </c>
       <c r="C4">
-        <v>25.55</v>
+        <v>25.84</v>
       </c>
       <c r="D4">
-        <v>22.03</v>
+        <v>22.38</v>
       </c>
       <c r="E4">
-        <v>15.73</v>
+        <v>15.29</v>
       </c>
       <c r="F4">
-        <v>9.700000000000001</v>
+        <v>10.49</v>
       </c>
       <c r="G4">
-        <v>4.7</v>
+        <v>4.32</v>
       </c>
       <c r="H4">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="I4">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="J4">
-        <v>96.91000000000001</v>
+        <v>96.94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1251,31 +1260,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>9.520000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="C5">
-        <v>12.37</v>
+        <v>9.91</v>
       </c>
       <c r="D5">
-        <v>13.17</v>
+        <v>15.07</v>
       </c>
       <c r="E5">
-        <v>15.03</v>
+        <v>15.62</v>
       </c>
       <c r="F5">
-        <v>16.72</v>
+        <v>11.56</v>
       </c>
       <c r="G5">
-        <v>12.23</v>
+        <v>16.56</v>
       </c>
       <c r="H5">
-        <v>11.75</v>
+        <v>10.04</v>
       </c>
       <c r="I5">
-        <v>9.210000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="J5">
-        <v>79.04000000000001</v>
+        <v>79.97000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1283,31 +1292,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>8.24</v>
+        <v>8.01</v>
       </c>
       <c r="C6">
-        <v>11.64</v>
+        <v>8.59</v>
       </c>
       <c r="D6">
-        <v>12.53</v>
+        <v>15.67</v>
       </c>
       <c r="E6">
-        <v>17.15</v>
+        <v>11.86</v>
       </c>
       <c r="F6">
-        <v>14.45</v>
+        <v>15.17</v>
       </c>
       <c r="G6">
-        <v>14.08</v>
+        <v>16.07</v>
       </c>
       <c r="H6">
-        <v>12.14</v>
+        <v>12.03</v>
       </c>
       <c r="I6">
-        <v>9.77</v>
+        <v>12.6</v>
       </c>
       <c r="J6">
-        <v>78.09</v>
+        <v>75.37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1315,95 +1324,95 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.22</v>
+        <v>3.08</v>
       </c>
       <c r="C7">
-        <v>2.64</v>
+        <v>5.67</v>
       </c>
       <c r="D7">
-        <v>5.41</v>
+        <v>9.56</v>
       </c>
       <c r="E7">
-        <v>10.11</v>
+        <v>9.32</v>
       </c>
       <c r="F7">
-        <v>11.79</v>
+        <v>18.46</v>
       </c>
       <c r="G7">
-        <v>17.5</v>
+        <v>14.52</v>
       </c>
       <c r="H7">
-        <v>20.89</v>
+        <v>17.43</v>
       </c>
       <c r="I7">
-        <v>30.44</v>
+        <v>21.96</v>
       </c>
       <c r="J7">
-        <v>48.67</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1.06</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>3.04</v>
+        <v>1.86</v>
       </c>
       <c r="D8">
-        <v>5.66</v>
+        <v>3.93</v>
       </c>
       <c r="E8">
-        <v>10.55</v>
+        <v>8.94</v>
       </c>
       <c r="F8">
-        <v>13.78</v>
+        <v>15.42</v>
       </c>
       <c r="G8">
-        <v>19.96</v>
+        <v>21.51</v>
       </c>
       <c r="H8">
-        <v>22.37</v>
+        <v>26.98</v>
       </c>
       <c r="I8">
-        <v>23.58</v>
+        <v>20.76</v>
       </c>
       <c r="J8">
-        <v>54.05</v>
+        <v>52.26000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="C9">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="D9">
-        <v>4.48</v>
+        <v>3.73</v>
       </c>
       <c r="E9">
-        <v>8.25</v>
+        <v>7.56</v>
       </c>
       <c r="F9">
-        <v>14.55</v>
+        <v>13.94</v>
       </c>
       <c r="G9">
-        <v>21.54</v>
+        <v>15.55</v>
       </c>
       <c r="H9">
-        <v>25.33</v>
+        <v>25.3</v>
       </c>
       <c r="I9">
-        <v>23.7</v>
+        <v>31.43</v>
       </c>
       <c r="J9">
-        <v>50.97</v>
+        <v>43.27</v>
       </c>
     </row>
   </sheetData>
@@ -1421,16 +1430,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1441,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1458,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1475,13 +1484,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1489,16 +1498,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1506,16 +1515,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1526,13 +1535,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1543,13 +1552,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1563,10 +1572,10 @@
         <v>-26</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1576,42 +1585,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1639,11 +1651,14 @@
       <c r="I2">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,11 +1686,14 @@
       <c r="I3">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1703,75 +1721,84 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-8</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-9</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-6</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1799,11 +1826,14 @@
       <c r="I7">
         <v>-14</v>
       </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>-6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1831,11 +1861,14 @@
       <c r="I8">
         <v>-16</v>
       </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>-18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1863,8 +1896,11 @@
       <c r="I9">
         <v>-26</v>
       </c>
-      <c r="J9" t="s">
-        <v>38</v>
+      <c r="J9">
+        <v>-26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1910,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,25 +1918,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1934,25 +1970,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1960,25 +1996,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1986,25 +2022,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-18</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2015,22 +2051,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2038,25 +2074,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2064,25 +2100,51 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>-12</v>
+      </c>
+      <c r="F8">
+        <v>-22</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>-14</v>
-      </c>
-      <c r="F8">
-        <v>-16</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,31 +46,34 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -124,28 +127,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -594,19 +594,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -623,22 +623,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -690,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -707,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -725,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -736,25 +736,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -765,25 +765,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -794,25 +794,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -830,13 +830,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -858,13 +858,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -872,13 +872,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -886,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.875</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.375</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -914,13 +914,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -928,13 +928,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.375</v>
+        <v>5.75</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -966,16 +966,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -986,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.125</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.625</v>
+        <v>7.625</v>
       </c>
       <c r="D3">
         <v>-0.375</v>
@@ -1037,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.875</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-0.125</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1054,13 +1054,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.875</v>
+        <v>4.25</v>
       </c>
       <c r="D6">
-        <v>-1.125</v>
+        <v>-0.75</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.375</v>
+        <v>3.125</v>
       </c>
       <c r="D8">
-        <v>1.375</v>
+        <v>1.125</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1105,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2.125</v>
+        <v>2.375</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1129,194 +1129,194 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>30.89</v>
+        <v>34.25</v>
       </c>
       <c r="C2">
-        <v>26.74</v>
+        <v>19.7</v>
       </c>
       <c r="D2">
-        <v>15.47</v>
+        <v>20.78</v>
       </c>
       <c r="E2">
-        <v>13.76</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="F2">
-        <v>7.109999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>7.13</v>
       </c>
       <c r="H2">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="I2">
-        <v>0.63</v>
+        <v>1.38</v>
       </c>
       <c r="J2">
-        <v>97.57000000000001</v>
+        <v>96.84999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>27.04</v>
+        <v>24.92</v>
       </c>
       <c r="C3">
-        <v>19.41</v>
+        <v>27.96</v>
       </c>
       <c r="D3">
-        <v>14.19</v>
+        <v>23.21</v>
       </c>
       <c r="E3">
-        <v>17.65</v>
+        <v>11.11</v>
       </c>
       <c r="F3">
-        <v>7.85</v>
+        <v>5.79</v>
       </c>
       <c r="G3">
-        <v>7.870000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H3">
-        <v>4.15</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
-        <v>1.84</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="J3">
-        <v>94.00999999999999</v>
+        <v>97.89000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>18.62</v>
+        <v>11.88</v>
       </c>
       <c r="C4">
-        <v>25.84</v>
+        <v>14.43</v>
       </c>
       <c r="D4">
-        <v>22.38</v>
+        <v>12.44</v>
       </c>
       <c r="E4">
-        <v>15.29</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="F4">
-        <v>10.49</v>
+        <v>20.56</v>
       </c>
       <c r="G4">
-        <v>4.32</v>
+        <v>10.55</v>
       </c>
       <c r="H4">
-        <v>2.27</v>
+        <v>10.24</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>11.44</v>
       </c>
       <c r="J4">
-        <v>96.94</v>
+        <v>78.32000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25</v>
+        <v>11.03</v>
       </c>
       <c r="C5">
-        <v>9.91</v>
+        <v>13.44</v>
       </c>
       <c r="D5">
-        <v>15.07</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E5">
-        <v>15.62</v>
+        <v>14.07</v>
       </c>
       <c r="F5">
-        <v>11.56</v>
+        <v>20.03</v>
       </c>
       <c r="G5">
-        <v>16.56</v>
+        <v>7.46</v>
       </c>
       <c r="H5">
-        <v>10.04</v>
+        <v>12.36</v>
       </c>
       <c r="I5">
-        <v>9.99</v>
+        <v>13.25</v>
       </c>
       <c r="J5">
-        <v>79.97000000000001</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>8.01</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C6">
-        <v>8.59</v>
+        <v>12.03</v>
       </c>
       <c r="D6">
-        <v>15.67</v>
+        <v>8.49</v>
       </c>
       <c r="E6">
-        <v>11.86</v>
+        <v>19.76</v>
       </c>
       <c r="F6">
-        <v>15.17</v>
+        <v>13.65</v>
       </c>
       <c r="G6">
-        <v>16.07</v>
+        <v>8.48</v>
       </c>
       <c r="H6">
-        <v>12.03</v>
+        <v>15.8</v>
       </c>
       <c r="I6">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="J6">
-        <v>75.37</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1324,95 +1324,95 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.08</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="C7">
-        <v>5.67</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="D7">
-        <v>9.56</v>
+        <v>8.94</v>
       </c>
       <c r="E7">
-        <v>9.32</v>
+        <v>18.11</v>
       </c>
       <c r="F7">
-        <v>18.46</v>
+        <v>8.27</v>
       </c>
       <c r="G7">
-        <v>14.52</v>
+        <v>15.83</v>
       </c>
       <c r="H7">
-        <v>17.43</v>
+        <v>19.3</v>
       </c>
       <c r="I7">
-        <v>21.96</v>
+        <v>18.51</v>
       </c>
       <c r="J7">
-        <v>60.61</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>2.49</v>
       </c>
       <c r="C8">
-        <v>1.86</v>
+        <v>3.85</v>
       </c>
       <c r="D8">
-        <v>3.93</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="E8">
-        <v>8.94</v>
+        <v>12.26</v>
       </c>
       <c r="F8">
-        <v>15.42</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="G8">
-        <v>21.51</v>
+        <v>22.68</v>
       </c>
       <c r="H8">
-        <v>26.98</v>
+        <v>18.33</v>
       </c>
       <c r="I8">
-        <v>20.76</v>
+        <v>21.88</v>
       </c>
       <c r="J8">
-        <v>52.26000000000001</v>
+        <v>59.79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.51</v>
+        <v>1.38</v>
       </c>
       <c r="C9">
-        <v>1.98</v>
+        <v>2.31</v>
       </c>
       <c r="D9">
-        <v>3.73</v>
+        <v>8.06</v>
       </c>
       <c r="E9">
-        <v>7.56</v>
+        <v>9.09</v>
       </c>
       <c r="F9">
-        <v>13.94</v>
+        <v>15.06</v>
       </c>
       <c r="G9">
-        <v>15.55</v>
+        <v>22.97</v>
       </c>
       <c r="H9">
-        <v>25.3</v>
+        <v>20.8</v>
       </c>
       <c r="I9">
-        <v>31.43</v>
+        <v>20.33</v>
       </c>
       <c r="J9">
-        <v>43.27</v>
+        <v>58.87</v>
       </c>
     </row>
   </sheetData>
@@ -1430,16 +1430,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1456,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1484,13 +1484,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1498,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>-3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -1515,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1535,10 +1535,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1555,10 +1555,10 @@
         <v>-18</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1569,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1585,45 +1585,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,11 +1657,14 @@
       <c r="J2">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,11 +1695,14 @@
       <c r="J3">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1724,81 +1733,90 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-6</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
+      <c r="K5">
+        <v>-3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>14</v>
       </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>-3</v>
       </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
+      <c r="K6">
         <v>-6</v>
       </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <v>-9</v>
-      </c>
-      <c r="H6">
-        <v>-6</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>-4</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1829,11 +1847,14 @@
       <c r="J7">
         <v>-6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,11 +1885,14 @@
       <c r="J8">
         <v>-18</v>
       </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1899,8 +1923,11 @@
       <c r="J9">
         <v>-26</v>
       </c>
-      <c r="K9" t="s">
-        <v>41</v>
+      <c r="K9">
+        <v>-27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,34 +46,34 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,24 +127,24 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -594,22 +597,22 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -623,22 +626,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -658,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -678,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -707,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -719,13 +722,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -736,25 +739,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -765,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -774,16 +777,16 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -794,25 +797,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.375</v>
+        <v>3.875</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -861,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.625</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -872,13 +875,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.625</v>
+        <v>5.125</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -886,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -900,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.375</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -914,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -928,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>6.375</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -945,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.875</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1003,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.625</v>
+        <v>7.875</v>
       </c>
       <c r="D3">
-        <v>-0.375</v>
+        <v>-0.125</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1020,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>6.625</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.375</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1037,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.875</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1051,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1068,16 +1071,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.875</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1.125</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.125</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1105,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2.375</v>
+        <v>3.125</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1164,31 +1167,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>34.25</v>
+        <v>24.79</v>
       </c>
       <c r="C2">
-        <v>19.7</v>
+        <v>13.43</v>
       </c>
       <c r="D2">
-        <v>20.78</v>
+        <v>12.13</v>
       </c>
       <c r="E2">
-        <v>7.140000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="F2">
-        <v>7.85</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="G2">
-        <v>7.13</v>
+        <v>4.58</v>
       </c>
       <c r="H2">
-        <v>1.77</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I2">
-        <v>1.38</v>
+        <v>4.71</v>
       </c>
       <c r="J2">
-        <v>96.84999999999999</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1196,31 +1199,31 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>24.92</v>
+        <v>19.1</v>
       </c>
       <c r="C3">
-        <v>27.96</v>
+        <v>28.73</v>
       </c>
       <c r="D3">
-        <v>23.21</v>
+        <v>10.15</v>
       </c>
       <c r="E3">
-        <v>11.11</v>
+        <v>19.94</v>
       </c>
       <c r="F3">
-        <v>5.79</v>
+        <v>12.66</v>
       </c>
       <c r="G3">
-        <v>4.9</v>
+        <v>2.63</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>4.42</v>
       </c>
       <c r="I3">
-        <v>0.7100000000000001</v>
+        <v>2.37</v>
       </c>
       <c r="J3">
-        <v>97.89000000000001</v>
+        <v>93.20999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1228,31 +1231,31 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>11.88</v>
+        <v>16.49</v>
       </c>
       <c r="C4">
-        <v>14.43</v>
+        <v>7.1</v>
       </c>
       <c r="D4">
-        <v>12.44</v>
+        <v>20.06</v>
       </c>
       <c r="E4">
-        <v>8.459999999999999</v>
+        <v>18.61</v>
       </c>
       <c r="F4">
-        <v>20.56</v>
+        <v>3.19</v>
       </c>
       <c r="G4">
-        <v>10.55</v>
+        <v>10.07</v>
       </c>
       <c r="H4">
-        <v>10.24</v>
+        <v>14.19</v>
       </c>
       <c r="I4">
-        <v>11.44</v>
+        <v>10.29</v>
       </c>
       <c r="J4">
-        <v>78.32000000000001</v>
+        <v>75.51999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1260,31 +1263,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03</v>
+        <v>12.43</v>
       </c>
       <c r="C5">
-        <v>13.44</v>
+        <v>13.83</v>
       </c>
       <c r="D5">
-        <v>8.359999999999999</v>
+        <v>17.44</v>
       </c>
       <c r="E5">
-        <v>14.07</v>
+        <v>3.84</v>
       </c>
       <c r="F5">
-        <v>20.03</v>
+        <v>7.85</v>
       </c>
       <c r="G5">
-        <v>7.46</v>
+        <v>21.39</v>
       </c>
       <c r="H5">
-        <v>12.36</v>
+        <v>10.12</v>
       </c>
       <c r="I5">
-        <v>13.25</v>
+        <v>13.1</v>
       </c>
       <c r="J5">
-        <v>74.39</v>
+        <v>76.78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1292,31 +1295,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>9.289999999999999</v>
+        <v>11.91</v>
       </c>
       <c r="C6">
-        <v>12.03</v>
+        <v>9.5</v>
       </c>
       <c r="D6">
-        <v>8.49</v>
+        <v>21.71</v>
       </c>
       <c r="E6">
-        <v>19.76</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F6">
-        <v>13.65</v>
+        <v>3.42</v>
       </c>
       <c r="G6">
-        <v>8.48</v>
+        <v>16.94</v>
       </c>
       <c r="H6">
-        <v>15.8</v>
+        <v>14.58</v>
       </c>
       <c r="I6">
-        <v>12.5</v>
+        <v>13.08</v>
       </c>
       <c r="J6">
-        <v>71.7</v>
+        <v>72.34</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1324,31 +1327,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.760000000000001</v>
+        <v>7.19</v>
       </c>
       <c r="C7">
-        <v>6.279999999999999</v>
+        <v>11.65</v>
       </c>
       <c r="D7">
-        <v>8.94</v>
+        <v>9.42</v>
       </c>
       <c r="E7">
-        <v>18.11</v>
+        <v>2.47</v>
       </c>
       <c r="F7">
-        <v>8.27</v>
+        <v>18.48</v>
       </c>
       <c r="G7">
-        <v>15.83</v>
+        <v>21.87</v>
       </c>
       <c r="H7">
-        <v>19.3</v>
+        <v>8.75</v>
       </c>
       <c r="I7">
-        <v>18.51</v>
+        <v>20.17</v>
       </c>
       <c r="J7">
-        <v>62.19</v>
+        <v>71.08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1356,31 +1359,31 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2.49</v>
+        <v>4.63</v>
       </c>
       <c r="C8">
-        <v>3.85</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="D8">
-        <v>9.719999999999999</v>
+        <v>5.08</v>
       </c>
       <c r="E8">
-        <v>12.26</v>
+        <v>6.92</v>
       </c>
       <c r="F8">
-        <v>8.790000000000001</v>
+        <v>25.35</v>
       </c>
       <c r="G8">
-        <v>22.68</v>
+        <v>12.09</v>
       </c>
       <c r="H8">
-        <v>18.33</v>
+        <v>15.8</v>
       </c>
       <c r="I8">
-        <v>21.88</v>
+        <v>21.08</v>
       </c>
       <c r="J8">
-        <v>59.79</v>
+        <v>63.12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1388,31 +1391,31 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>1.38</v>
+        <v>3.46</v>
       </c>
       <c r="C9">
-        <v>2.31</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="D9">
-        <v>8.06</v>
+        <v>4.01</v>
       </c>
       <c r="E9">
-        <v>9.09</v>
+        <v>14.26</v>
       </c>
       <c r="F9">
-        <v>15.06</v>
+        <v>22.16</v>
       </c>
       <c r="G9">
-        <v>22.97</v>
+        <v>10.43</v>
       </c>
       <c r="H9">
-        <v>20.8</v>
+        <v>23.77</v>
       </c>
       <c r="I9">
-        <v>20.33</v>
+        <v>15.2</v>
       </c>
       <c r="J9">
-        <v>58.87</v>
+        <v>61.03</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1484,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1498,16 +1501,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>-3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1515,16 +1518,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1535,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1552,13 +1555,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1572,10 +1575,10 @@
         <v>-27</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1585,13 +1588,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1623,10 +1626,13 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1660,11 +1666,14 @@
       <c r="K2">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,11 +1707,14 @@
       <c r="K3">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1736,87 +1748,96 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-3</v>
+      </c>
+      <c r="K5">
+        <v>-6</v>
+      </c>
+      <c r="L5">
+        <v>-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-8</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-9</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-6</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>-4</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-3</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>-3</v>
-      </c>
-      <c r="K6">
-        <v>-6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1850,11 +1871,14 @@
       <c r="K7">
         <v>-8</v>
       </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>-6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1888,11 +1912,14 @@
       <c r="K8">
         <v>-18</v>
       </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1926,8 +1953,11 @@
       <c r="K9">
         <v>-27</v>
       </c>
-      <c r="L9" t="s">
-        <v>40</v>
+      <c r="L9">
+        <v>-27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1945,25 +1975,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1971,25 +2001,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1997,25 +2027,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>-27</v>
       </c>
       <c r="F3">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2023,25 +2053,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2052,22 +2082,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2075,25 +2105,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2101,25 +2131,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-15</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2127,25 +2157,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="F8">
-        <v>-22</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2153,25 +2183,77 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11">
+        <v>-22</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,34 +46,34 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,24 +127,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -594,22 +603,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -620,28 +629,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -649,25 +658,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -681,25 +690,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -710,25 +719,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -736,28 +745,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -794,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -803,19 +812,19 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.875</v>
+        <v>4.375</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -864,10 +873,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -875,13 +884,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.125</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -889,13 +898,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5.375</v>
+        <v>5.875</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -906,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.375</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -934,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.375</v>
+        <v>6.875</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -948,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6.875</v>
+        <v>7.125</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -989,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>8.375</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.625</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1006,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.875</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1023,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6.625</v>
+        <v>7.5</v>
       </c>
       <c r="D4">
-        <v>-0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1037,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.875</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1.125</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1054,16 +1063,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.625</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.875</v>
+        <v>5.375</v>
       </c>
       <c r="D7">
-        <v>-1.125</v>
+        <v>0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1091,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.125</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>1.125</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1114,7 +1123,7 @@
         <v>0.125</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1164,258 +1173,258 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>24.79</v>
+        <v>19.71</v>
       </c>
       <c r="C2">
-        <v>13.43</v>
+        <v>4.06</v>
       </c>
       <c r="D2">
-        <v>12.13</v>
+        <v>3.67</v>
       </c>
       <c r="E2">
-        <v>25.1</v>
+        <v>31.03</v>
       </c>
       <c r="F2">
-        <v>6.890000000000001</v>
+        <v>14.52</v>
       </c>
       <c r="G2">
-        <v>4.58</v>
+        <v>0.63</v>
       </c>
       <c r="H2">
-        <v>8.369999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="I2">
-        <v>4.71</v>
+        <v>18.04</v>
       </c>
       <c r="J2">
-        <v>86.92</v>
+        <v>73.61999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>19.1</v>
+        <v>19.15</v>
       </c>
       <c r="C3">
-        <v>28.73</v>
+        <v>20.56</v>
       </c>
       <c r="D3">
-        <v>10.15</v>
+        <v>2.66</v>
       </c>
       <c r="E3">
-        <v>19.94</v>
+        <v>3.95</v>
       </c>
       <c r="F3">
-        <v>12.66</v>
+        <v>25.23</v>
       </c>
       <c r="G3">
-        <v>2.63</v>
+        <v>15.72</v>
       </c>
       <c r="H3">
-        <v>4.42</v>
+        <v>1.21</v>
       </c>
       <c r="I3">
-        <v>2.37</v>
+        <v>11.52</v>
       </c>
       <c r="J3">
-        <v>93.20999999999998</v>
+        <v>87.27000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>16.49</v>
+        <v>18.35</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>1.27</v>
       </c>
       <c r="D4">
-        <v>20.06</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>18.61</v>
+        <v>26.72</v>
       </c>
       <c r="F4">
-        <v>3.19</v>
+        <v>4.14</v>
       </c>
       <c r="G4">
-        <v>10.07</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>14.19</v>
+        <v>14.64</v>
       </c>
       <c r="I4">
-        <v>10.29</v>
+        <v>15.38</v>
       </c>
       <c r="J4">
-        <v>75.51999999999998</v>
+        <v>69.98</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>12.43</v>
+        <v>16.98</v>
       </c>
       <c r="C5">
-        <v>13.83</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="D5">
-        <v>17.44</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="E5">
-        <v>3.84</v>
+        <v>15.11</v>
       </c>
       <c r="F5">
-        <v>7.85</v>
+        <v>30.16</v>
       </c>
       <c r="G5">
-        <v>21.39</v>
+        <v>3.39</v>
       </c>
       <c r="H5">
-        <v>10.12</v>
+        <v>4.03</v>
       </c>
       <c r="I5">
-        <v>13.1</v>
+        <v>22.26</v>
       </c>
       <c r="J5">
-        <v>76.78</v>
+        <v>73.70999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>11.91</v>
+        <v>10.98</v>
       </c>
       <c r="C6">
-        <v>9.5</v>
+        <v>27.26</v>
       </c>
       <c r="D6">
-        <v>21.71</v>
+        <v>9.65</v>
       </c>
       <c r="E6">
-        <v>8.859999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="F6">
-        <v>3.42</v>
+        <v>15.02</v>
       </c>
       <c r="G6">
-        <v>16.94</v>
+        <v>22.36</v>
       </c>
       <c r="H6">
-        <v>14.58</v>
+        <v>4.35</v>
       </c>
       <c r="I6">
-        <v>13.08</v>
+        <v>9.32</v>
       </c>
       <c r="J6">
-        <v>72.34</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>7.19</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="C7">
-        <v>11.65</v>
+        <v>4.48</v>
       </c>
       <c r="D7">
-        <v>9.42</v>
+        <v>21.38</v>
       </c>
       <c r="E7">
-        <v>2.47</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>18.48</v>
+        <v>0.8</v>
       </c>
       <c r="G7">
-        <v>21.87</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="H7">
-        <v>8.75</v>
+        <v>29.88</v>
       </c>
       <c r="I7">
-        <v>20.17</v>
+        <v>14.19</v>
       </c>
       <c r="J7">
-        <v>71.08</v>
+        <v>55.92999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>4.63</v>
+        <v>3.88</v>
       </c>
       <c r="C8">
-        <v>9.049999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>5.08</v>
+        <v>17.4</v>
       </c>
       <c r="E8">
-        <v>6.92</v>
+        <v>5.7</v>
       </c>
       <c r="F8">
-        <v>25.35</v>
+        <v>3.57</v>
       </c>
       <c r="G8">
-        <v>12.09</v>
+        <v>28.12</v>
       </c>
       <c r="H8">
-        <v>15.8</v>
+        <v>29.8</v>
       </c>
       <c r="I8">
-        <v>21.08</v>
+        <v>4.03</v>
       </c>
       <c r="J8">
-        <v>63.12</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>3.46</v>
+        <v>3.81</v>
       </c>
       <c r="C9">
-        <v>6.710000000000001</v>
+        <v>27.51</v>
       </c>
       <c r="D9">
-        <v>4.01</v>
+        <v>26.53</v>
       </c>
       <c r="E9">
-        <v>14.26</v>
+        <v>3.53</v>
       </c>
       <c r="F9">
-        <v>22.16</v>
+        <v>6.56</v>
       </c>
       <c r="G9">
-        <v>10.43</v>
+        <v>19.05</v>
       </c>
       <c r="H9">
-        <v>23.77</v>
+        <v>7.75</v>
       </c>
       <c r="I9">
-        <v>15.2</v>
+        <v>5.26</v>
       </c>
       <c r="J9">
-        <v>61.03</v>
+        <v>86.98999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1462,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1470,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1487,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -1504,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1521,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1538,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1555,13 +1564,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1572,13 +1581,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1588,51 +1597,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1669,11 +1681,14 @@
       <c r="L2">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,11 +1725,14 @@
       <c r="L3">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1751,11 +1769,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1792,11 +1813,14 @@
       <c r="L5">
         <v>-3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1833,11 +1857,14 @@
       <c r="L6">
         <v>-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>-3</v>
+      </c>
+      <c r="N6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1874,11 +1901,14 @@
       <c r="L7">
         <v>-6</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>-4</v>
+      </c>
+      <c r="N7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1915,11 +1945,14 @@
       <c r="L8">
         <v>-16</v>
       </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1956,8 +1989,11 @@
       <c r="L9">
         <v>-27</v>
       </c>
-      <c r="M9" t="s">
-        <v>36</v>
+      <c r="M9">
+        <v>-28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1975,25 +2011,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2228,32 +2264,6 @@
       </c>
       <c r="H10" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>-12</v>
-      </c>
-      <c r="F11">
-        <v>-22</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="63">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,34 +46,37 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,30 +130,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -603,25 +606,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -629,28 +632,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -658,28 +661,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -719,25 +722,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -748,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -760,10 +763,10 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -774,28 +777,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -812,19 +815,19 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -842,13 +845,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -859,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.375</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -870,13 +873,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.25</v>
+        <v>5.875</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -884,13 +887,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.125</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -898,13 +901,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.875</v>
+        <v>6.125</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -915,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.875</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.75</v>
+        <v>7.125</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -943,10 +946,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6.875</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.125</v>
+        <v>7.875</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -978,16 +981,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -995,16 +998,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.375</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>-0.625</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1012,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>8.375</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.625</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1032,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1046,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.875</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>-1.125</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1063,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.625</v>
+        <v>6.125</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1080,16 +1083,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.375</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1100,13 +1103,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
       <c r="D8">
-        <v>1.125</v>
+        <v>1.625</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1117,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>3.125</v>
+        <v>3.375</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1141,258 +1144,258 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>19.71</v>
+        <v>28.5</v>
       </c>
       <c r="C2">
-        <v>4.06</v>
+        <v>11.18</v>
       </c>
       <c r="D2">
-        <v>3.67</v>
+        <v>0.47</v>
       </c>
       <c r="E2">
-        <v>31.03</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14.52</v>
+        <v>2.26</v>
       </c>
       <c r="G2">
-        <v>0.63</v>
+        <v>28.46</v>
       </c>
       <c r="H2">
-        <v>8.34</v>
+        <v>29.13</v>
       </c>
       <c r="I2">
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>73.61999999999999</v>
+        <v>70.86999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>19.15</v>
+        <v>23.87</v>
       </c>
       <c r="C3">
-        <v>20.56</v>
+        <v>2.73</v>
       </c>
       <c r="D3">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25.23</v>
+        <v>15.77</v>
       </c>
       <c r="G3">
-        <v>15.72</v>
+        <v>57.63</v>
       </c>
       <c r="H3">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>87.27000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>18.35</v>
+        <v>20.99</v>
       </c>
       <c r="C4">
-        <v>1.27</v>
+        <v>27.1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>3.05</v>
       </c>
       <c r="E4">
-        <v>26.72</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
-        <v>4.14</v>
+        <v>0.45</v>
       </c>
       <c r="G4">
-        <v>1.5</v>
+        <v>10.39</v>
       </c>
       <c r="H4">
-        <v>14.64</v>
+        <v>29.86</v>
       </c>
       <c r="I4">
-        <v>15.38</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J4">
-        <v>69.98</v>
+        <v>62.00000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>16.98</v>
+        <v>18.5</v>
       </c>
       <c r="C5">
-        <v>7.359999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7100000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>15.11</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>30.16</v>
+        <v>81.5</v>
       </c>
       <c r="G5">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>22.26</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>73.70999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>10.98</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C6">
-        <v>27.26</v>
+        <v>32.26</v>
       </c>
       <c r="D6">
-        <v>9.65</v>
+        <v>12.44</v>
       </c>
       <c r="E6">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
       <c r="F6">
-        <v>15.02</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
-        <v>22.36</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
-        <v>4.35</v>
+        <v>25.05</v>
       </c>
       <c r="I6">
-        <v>9.32</v>
+        <v>18.59</v>
       </c>
       <c r="J6">
-        <v>86.33</v>
+        <v>56.36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>7.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.48</v>
+        <v>26.73</v>
       </c>
       <c r="D7">
-        <v>21.38</v>
+        <v>33.91</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>3.4</v>
       </c>
       <c r="F7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>9.229999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="H7">
-        <v>29.88</v>
+        <v>12.09</v>
       </c>
       <c r="I7">
-        <v>14.19</v>
+        <v>23.4</v>
       </c>
       <c r="J7">
-        <v>55.92999999999999</v>
+        <v>64.51000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>17.4</v>
+        <v>50.13</v>
       </c>
       <c r="E8">
-        <v>5.7</v>
+        <v>14.31</v>
       </c>
       <c r="F8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>28.12</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>29.8</v>
+        <v>3.87</v>
       </c>
       <c r="I8">
-        <v>4.03</v>
+        <v>31.69</v>
       </c>
       <c r="J8">
-        <v>66.17</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1400,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>27.51</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>26.53</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3.53</v>
+        <v>81.82000000000001</v>
       </c>
       <c r="F9">
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>19.05</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.26</v>
+        <v>18.18</v>
       </c>
       <c r="J9">
-        <v>86.98999999999999</v>
+        <v>81.82000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1442,16 +1445,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1462,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1479,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1499,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1513,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1530,13 +1533,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1547,13 +1550,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1564,13 +1567,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1581,13 +1584,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1597,13 +1600,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1641,10 +1644,13 @@
         <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1684,11 +1690,14 @@
       <c r="M2">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,11 +1737,14 @@
       <c r="M3">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1772,11 +1784,14 @@
       <c r="M4">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1816,11 +1831,14 @@
       <c r="M5">
         <v>4</v>
       </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1860,11 +1878,14 @@
       <c r="M6">
         <v>-3</v>
       </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1904,11 +1925,14 @@
       <c r="M7">
         <v>-4</v>
       </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1948,11 +1972,14 @@
       <c r="M8">
         <v>-18</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1992,8 +2019,11 @@
       <c r="M9">
         <v>-28</v>
       </c>
-      <c r="N9" t="s">
-        <v>42</v>
+      <c r="N9">
+        <v>-30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2011,25 +2041,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2193,25 +2223,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2219,25 +2249,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2245,24 +2275,50 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>0</v>
       </c>
     </row>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="63">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,37 +46,40 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,27 +133,21 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -641,13 +641,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -667,22 +667,22 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -699,19 +699,19 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -725,16 +725,16 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -760,16 +760,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -789,16 +789,16 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -806,28 +806,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -845,13 +845,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -862,10 +862,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.875</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5.875</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -887,13 +887,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.125</v>
+        <v>6.375</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -901,13 +901,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.125</v>
+        <v>6.75</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.875</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.125</v>
+        <v>7.875</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -946,10 +946,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.875</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.875</v>
+        <v>8.75</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -981,16 +981,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8.375</v>
+        <v>8.75</v>
       </c>
       <c r="D3">
-        <v>-0.625</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1032,16 +1032,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>8.625</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>-0.375</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1066,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.125</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>0.125</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1083,16 +1083,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.125</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>4.625</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>3.375</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1144,98 +1144,98 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>28.5</v>
+        <v>29.18</v>
       </c>
       <c r="C2">
-        <v>11.18</v>
+        <v>2.69</v>
       </c>
       <c r="D2">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.26</v>
+        <v>13.61</v>
       </c>
       <c r="G2">
-        <v>28.46</v>
+        <v>54.52</v>
       </c>
       <c r="H2">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>70.86999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>23.87</v>
+        <v>27.69</v>
       </c>
       <c r="C3">
-        <v>2.73</v>
+        <v>12.76</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.77</v>
+        <v>2.32</v>
       </c>
       <c r="G3">
-        <v>57.63</v>
+        <v>30.03</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.83</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>73.16999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1243,31 +1243,31 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20.99</v>
+        <v>17.74</v>
       </c>
       <c r="C4">
-        <v>27.1</v>
+        <v>22.54</v>
       </c>
       <c r="D4">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="G4">
-        <v>10.39</v>
+        <v>12.28</v>
       </c>
       <c r="H4">
-        <v>29.86</v>
+        <v>35.18</v>
       </c>
       <c r="I4">
-        <v>8.140000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="J4">
-        <v>62.00000000000001</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18.5</v>
+        <v>16.3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>81.5</v>
+        <v>83.7</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1307,31 +1307,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>8.140000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="C6">
-        <v>32.26</v>
+        <v>34.1</v>
       </c>
       <c r="D6">
-        <v>12.44</v>
+        <v>11.04</v>
       </c>
       <c r="E6">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="F6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H6">
-        <v>25.05</v>
+        <v>23.78</v>
       </c>
       <c r="I6">
-        <v>18.59</v>
+        <v>18.82</v>
       </c>
       <c r="J6">
-        <v>56.36</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>26.73</v>
+        <v>27.91</v>
       </c>
       <c r="D7">
-        <v>33.91</v>
+        <v>31.45</v>
       </c>
       <c r="E7">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="H7">
-        <v>12.09</v>
+        <v>11.66</v>
       </c>
       <c r="I7">
-        <v>23.4</v>
+        <v>26.43</v>
       </c>
       <c r="J7">
-        <v>64.51000000000001</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>50.13</v>
+        <v>54.34</v>
       </c>
       <c r="E8">
-        <v>14.31</v>
+        <v>10.16</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.87</v>
+        <v>2.55</v>
       </c>
       <c r="I8">
-        <v>31.69</v>
+        <v>32.95</v>
       </c>
       <c r="J8">
-        <v>64.44</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>81.82000000000001</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.18</v>
+        <v>12.71</v>
       </c>
       <c r="J9">
-        <v>81.82000000000001</v>
+        <v>87.29000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1445,16 +1445,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1499,13 +1499,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1513,13 +1513,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1530,13 +1530,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1550,13 +1550,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1567,13 +1567,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1590,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1600,151 +1600,160 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2">
+      <c r="K2">
         <v>22</v>
       </c>
-      <c r="I2">
-        <v>33</v>
-      </c>
-      <c r="J2">
-        <v>36</v>
-      </c>
-      <c r="K2">
-        <v>36</v>
-      </c>
       <c r="L2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>34</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>27</v>
+      </c>
+      <c r="O3">
         <v>22</v>
       </c>
-      <c r="L3">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1787,105 +1796,114 @@
       <c r="N4">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
+        <v>-4</v>
+      </c>
+      <c r="K5">
         <v>-3</v>
       </c>
-      <c r="K5">
-        <v>-6</v>
-      </c>
       <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
         <v>-3</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-3</v>
+      </c>
+      <c r="K6">
+        <v>-6</v>
+      </c>
+      <c r="L6">
+        <v>-3</v>
+      </c>
+      <c r="M6">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-6</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <v>-9</v>
-      </c>
-      <c r="H6">
-        <v>-6</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>-4</v>
-      </c>
-      <c r="K6">
-        <v>-3</v>
-      </c>
-      <c r="L6">
-        <v>-4</v>
-      </c>
-      <c r="M6">
-        <v>-3</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1928,11 +1946,14 @@
       <c r="N7">
         <v>-10</v>
       </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1975,11 +1996,14 @@
       <c r="N8">
         <v>-16</v>
       </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2022,8 +2046,11 @@
       <c r="N9">
         <v>-30</v>
       </c>
-      <c r="O9" t="s">
-        <v>39</v>
+      <c r="O9">
+        <v>-30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2093,25 +2120,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-27</v>
+        <v>-12</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2119,22 +2146,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="F4">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -2145,25 +2172,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="G5">
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2171,25 +2198,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2197,25 +2224,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="F7">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2223,25 +2250,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="G8">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2249,25 +2276,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>-18</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2275,25 +2302,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2301,25 +2328,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,40 +46,40 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,21 +133,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -609,19 +618,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -638,16 +647,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -661,28 +670,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -690,28 +699,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -751,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -780,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -792,10 +801,10 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -812,22 +821,22 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.875</v>
+        <v>5.25</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -876,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.875</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -890,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.375</v>
+        <v>7.125</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -904,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>7.375</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -918,10 +927,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>7.625</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.875</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -946,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>7.875</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -960,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8.75</v>
+        <v>9.125</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1001,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1018,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="D3">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1035,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.625</v>
+        <v>8.875</v>
       </c>
       <c r="D4">
-        <v>-0.375</v>
+        <v>-0.125</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1052,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1069,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.625</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>-1.375</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1086,13 +1095,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.125</v>
+        <v>6.625</v>
       </c>
       <c r="D7">
-        <v>0.125</v>
+        <v>-0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1120,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1188,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>29.18</v>
+        <v>29.17</v>
       </c>
       <c r="C2">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1191,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.61</v>
+        <v>13.59</v>
       </c>
       <c r="G2">
-        <v>54.52</v>
+        <v>54.56</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1211,10 +1220,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>27.69</v>
+        <v>27.56</v>
       </c>
       <c r="C3">
-        <v>12.76</v>
+        <v>12.94</v>
       </c>
       <c r="D3">
         <v>0.37</v>
@@ -1223,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="G3">
-        <v>30.03</v>
+        <v>29.82</v>
       </c>
       <c r="H3">
-        <v>26.83</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>73.16999999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1243,31 +1252,31 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>17.74</v>
+        <v>17.84</v>
       </c>
       <c r="C4">
         <v>22.54</v>
       </c>
       <c r="D4">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F4">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="G4">
-        <v>12.28</v>
+        <v>12.64</v>
       </c>
       <c r="H4">
-        <v>35.18</v>
+        <v>34.84</v>
       </c>
       <c r="I4">
-        <v>9.09</v>
+        <v>9.16</v>
       </c>
       <c r="J4">
-        <v>55.73</v>
+        <v>55.99999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1275,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>16.3</v>
+        <v>16.27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1287,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>83.7</v>
+        <v>83.73</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1307,31 +1316,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>9.09</v>
+        <v>9.16</v>
       </c>
       <c r="C6">
-        <v>34.1</v>
+        <v>33.1</v>
       </c>
       <c r="D6">
-        <v>11.04</v>
+        <v>11.41</v>
       </c>
       <c r="E6">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="H6">
-        <v>23.78</v>
+        <v>23.77</v>
       </c>
       <c r="I6">
-        <v>18.82</v>
+        <v>19.58</v>
       </c>
       <c r="J6">
-        <v>57.4</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1342,28 +1351,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>27.91</v>
+        <v>28.74</v>
       </c>
       <c r="D7">
-        <v>31.45</v>
+        <v>30.35</v>
       </c>
       <c r="E7">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="H7">
-        <v>11.66</v>
+        <v>11.93</v>
       </c>
       <c r="I7">
-        <v>26.43</v>
+        <v>26.52</v>
       </c>
       <c r="J7">
-        <v>61.91</v>
+        <v>61.55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1377,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>54.34</v>
+        <v>55.26</v>
       </c>
       <c r="E8">
-        <v>10.16</v>
+        <v>10.53</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1389,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
       <c r="I8">
-        <v>32.95</v>
+        <v>31.75</v>
       </c>
       <c r="J8">
-        <v>64.5</v>
+        <v>65.78999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1412,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>87.29000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1424,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.71</v>
+        <v>12.99</v>
       </c>
       <c r="J9">
-        <v>87.29000000000001</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1482,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1499,13 +1508,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1516,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1533,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1553,10 +1562,10 @@
         <v>-12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1567,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1584,13 +1593,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1600,60 +1609,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,11 +1711,14 @@
       <c r="O2">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1749,11 +1764,14 @@
       <c r="O3">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1799,11 +1817,14 @@
       <c r="O4">
         <v>8</v>
       </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1849,11 +1870,14 @@
       <c r="O5">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1899,11 +1923,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1949,11 +1976,14 @@
       <c r="O7">
         <v>-12</v>
       </c>
-      <c r="P7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>-12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1999,11 +2029,14 @@
       <c r="O8">
         <v>-21</v>
       </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2049,8 +2082,11 @@
       <c r="O9">
         <v>-30</v>
       </c>
-      <c r="P9" t="s">
-        <v>41</v>
+      <c r="P9">
+        <v>-32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,25 +2104,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2120,25 +2156,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2146,22 +2182,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>-27</v>
-      </c>
       <c r="F4">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -2172,25 +2208,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="F5">
-        <v>-26</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2198,25 +2234,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>-27</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2224,25 +2260,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>-26</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2250,25 +2286,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2276,25 +2312,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2302,22 +2338,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
       <c r="E10">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -2328,24 +2364,76 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-18</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>-4</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/EBC League 2024.xlsx
+++ b/EBC League 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,40 +46,46 @@
     <t xml:space="preserve">First down syndrome </t>
   </si>
   <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,27 +139,18 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -197,6 +194,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -615,25 +618,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -644,25 +647,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -673,25 +676,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -699,28 +702,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -731,25 +734,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -760,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -769,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -789,22 +792,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -815,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -854,13 +857,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -871,10 +874,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -882,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.875</v>
+        <v>7.875</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -896,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>7.125</v>
+        <v>7.875</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -910,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.375</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -924,13 +927,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.625</v>
+        <v>8.625</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -938,13 +941,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>8.875</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -955,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -969,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9.125</v>
+        <v>10.125</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -990,16 +993,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1010,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.75</v>
+        <v>11.875</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1027,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.25</v>
+        <v>11.125</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>-0.875</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1044,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.875</v>
+        <v>9.625</v>
       </c>
       <c r="D4">
-        <v>-0.125</v>
+        <v>-0.375</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1061,13 +1064,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9.375</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1075,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6.625</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
-        <v>-1.375</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1092,16 +1095,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.625</v>
+        <v>7.375</v>
       </c>
       <c r="D7">
-        <v>-0.375</v>
+        <v>-1.625</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1112,13 +1115,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="D8">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1153,45 +1156,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>29.17</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1200,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>54.56</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1217,74 +1220,74 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>27.56</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12.94</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>29.82</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>17.84</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.61</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.64</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>34.84</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9.16</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>55.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1293,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>83.73</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1316,31 +1319,31 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>9.16</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>23.77</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>19.58</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>56.65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1351,28 +1354,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>28.74</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>30.35</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.33</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>11.93</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>26.52</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>61.55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1386,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>55.26</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>10.53</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1398,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.46</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>31.75</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>65.78999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>87.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1433,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.99</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>87.01000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1454,16 +1457,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1474,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,16 +1491,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1505,16 +1508,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1522,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -1539,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
@@ -1559,13 +1562,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1576,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1593,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-32</v>
+        <v>-44</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1609,63 +1612,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,223 +1723,253 @@
       <c r="P2">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>15</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>33</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>36</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>36</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>34</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>27</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>22</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-3</v>
+      </c>
+      <c r="K5">
+        <v>-6</v>
+      </c>
+      <c r="L5">
+        <v>-3</v>
+      </c>
+      <c r="M5">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>-8</v>
-      </c>
-      <c r="G5">
-        <v>-9</v>
-      </c>
-      <c r="H5">
-        <v>-6</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>-4</v>
-      </c>
-      <c r="K5">
-        <v>-3</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>-3</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>-9</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
+        <v>-4</v>
+      </c>
+      <c r="K6">
         <v>-3</v>
       </c>
-      <c r="K6">
-        <v>-6</v>
-      </c>
       <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
         <v>-3</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>-3</v>
+      </c>
+      <c r="R6">
+        <v>-3</v>
+      </c>
+      <c r="S6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1979,11 +2018,17 @@
       <c r="P7">
         <v>-12</v>
       </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>-18</v>
+      </c>
+      <c r="R7">
+        <v>-18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2032,11 +2077,17 @@
       <c r="P8">
         <v>-22</v>
       </c>
-      <c r="Q8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>-18</v>
+      </c>
+      <c r="R8">
+        <v>-18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2085,8 +2136,14 @@
       <c r="P9">
         <v>-32</v>
       </c>
-      <c r="Q9" t="s">
-        <v>43</v>
+      <c r="Q9">
+        <v>-40</v>
+      </c>
+      <c r="R9">
+        <v>-44</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2104,25 +2161,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2234,25 +2291,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-27</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2260,25 +2317,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>-26</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2286,25 +2343,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>-27</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2312,25 +2369,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22</v>
+        <v>-26</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2338,25 +2395,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2364,25 +2421,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2390,22 +2447,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
       <c r="E12">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
@@ -2416,25 +2473,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
